--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2437304387233191</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.145224935714558</v>
+        <v>-2.151501629398973</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04761502043512129</v>
+        <v>-0.05664855557843677</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2237735301348489</v>
+        <v>-0.2235198031333217</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2248184369289064</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.29895483236823</v>
+        <v>-2.299180503018626</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0502663456169451</v>
+        <v>-0.04598287270414349</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2277898577912348</v>
+        <v>-0.2291585197898575</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2091392894253337</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.547274277175373</v>
+        <v>-2.53982897547431</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04253072167374948</v>
+        <v>-0.0537819283977209</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2838464473497954</v>
+        <v>-0.2781138029090404</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1977413346388798</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.766831692629109</v>
+        <v>-2.76631569973658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009833408107778288</v>
+        <v>-0.006313021967773049</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3170724861363226</v>
+        <v>-0.2991243503816575</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1866457510595677</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.951500425531502</v>
+        <v>-2.966437382905062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07878555053482299</v>
+        <v>0.05606539540528108</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3363057247568958</v>
+        <v>-0.3265890784556225</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1728469383945375</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.948997920994805</v>
+        <v>-2.97213953131198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2919619758684204</v>
+        <v>0.2651480331565456</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.361351507426878</v>
+        <v>-0.3521069397294078</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.154831127736466</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.961054223012084</v>
+        <v>-2.998000168006097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4384630926612738</v>
+        <v>0.4110977816576186</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3909515677901381</v>
+        <v>-0.3884210069023104</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1289713670721913</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.708380554493635</v>
+        <v>-2.750244289904269</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6319653067250091</v>
+        <v>0.621478330609003</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4045601179297407</v>
+        <v>-0.4041606198864708</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09083085913170978</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.350346748591021</v>
+        <v>-2.392958246751347</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7347668268702175</v>
+        <v>0.7171913526490454</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3990555838220895</v>
+        <v>-0.3933552651772022</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03780285468830324</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.979147804880799</v>
+        <v>-2.025023598503081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8234425841419409</v>
+        <v>0.8064782504388704</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.370802838233766</v>
+        <v>-0.353445105694193</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03291647131913078</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.507319268555269</v>
+        <v>-1.558161036327634</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7822040174249745</v>
+        <v>0.7669968651916151</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3231082611534213</v>
+        <v>-0.3066922461387473</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1232792165232498</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.060416970447079</v>
+        <v>-1.119798237614593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6501507016229292</v>
+        <v>0.6282094151975945</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2494932751526377</v>
+        <v>-0.2347527122369907</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2322322745564155</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5585894856356953</v>
+        <v>-0.6311694362480375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3831268194219527</v>
+        <v>0.3593027078674968</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1355198379714351</v>
+        <v>-0.1170752267858971</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3544043643818369</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.05454005979891874</v>
+        <v>-0.131165004339454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07378481090616566</v>
+        <v>0.04045874512865177</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.009398610671441475</v>
+        <v>0.001638513894991381</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4793905656316404</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4902502374825978</v>
+        <v>0.3920896037667654</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2880896654979316</v>
+        <v>-0.3176811869717171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07836104574380634</v>
+        <v>0.08226026863025668</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6046677905344527</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9382882078908932</v>
+        <v>0.8369590362593546</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6954648343081107</v>
+        <v>-0.7266628868444506</v>
       </c>
       <c r="G17" t="n">
-        <v>0.211708613221911</v>
+        <v>0.2186915950499995</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7332727647463002</v>
       </c>
       <c r="E18" t="n">
-        <v>1.51130380433028</v>
+        <v>1.400682491188484</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050039780052887</v>
+        <v>-1.074906855964582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3476556626243159</v>
+        <v>0.3362824717649948</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8659749974594612</v>
       </c>
       <c r="E19" t="n">
-        <v>1.885107109330215</v>
+        <v>1.766741023435073</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.405813219927474</v>
+        <v>-1.429576339414255</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5027151863532979</v>
+        <v>0.4898946537280537</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.00130716937778</v>
       </c>
       <c r="E20" t="n">
-        <v>2.178121541329457</v>
+        <v>2.056015421844496</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.700789156823137</v>
+        <v>-1.709872095541269</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6420838907522594</v>
+        <v>0.6207269083352493</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.134240412148156</v>
       </c>
       <c r="E21" t="n">
-        <v>2.510273363314268</v>
+        <v>2.386851035008884</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.123320854450505</v>
+        <v>-2.115970700375014</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7993348594727971</v>
+        <v>0.7736431708061388</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.260759036301401</v>
       </c>
       <c r="E22" t="n">
-        <v>2.770814398642089</v>
+        <v>2.642916472410728</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.432458539539581</v>
+        <v>-2.42702170662705</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9006878180107289</v>
+        <v>0.8639455865227492</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.37790413384823</v>
       </c>
       <c r="E23" t="n">
-        <v>3.023961975526371</v>
+        <v>2.907686697711121</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.806183164772217</v>
+        <v>-2.796623268084868</v>
       </c>
       <c r="G23" t="n">
-        <v>1.052691029228527</v>
+        <v>1.018816034841939</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.482110865637878</v>
       </c>
       <c r="E24" t="n">
-        <v>3.20565124592285</v>
+        <v>3.090581171364854</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.051399638136405</v>
+        <v>-3.039598282962007</v>
       </c>
       <c r="G24" t="n">
-        <v>1.183752004089503</v>
+        <v>1.144323681941124</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.571916333163077</v>
       </c>
       <c r="E25" t="n">
-        <v>3.389088548978889</v>
+        <v>3.27214723778463</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.318009689158208</v>
+        <v>-3.306663029848325</v>
       </c>
       <c r="G25" t="n">
-        <v>1.275770736590482</v>
+        <v>1.243427862943886</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.645072441743846</v>
       </c>
       <c r="E26" t="n">
-        <v>3.442010146258964</v>
+        <v>3.327936682086775</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.522957369681459</v>
+        <v>-3.509121319129429</v>
       </c>
       <c r="G26" t="n">
-        <v>1.338578538119967</v>
+        <v>1.30575565690077</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.700706539430019</v>
       </c>
       <c r="E27" t="n">
-        <v>3.51279632016099</v>
+        <v>3.404807424660039</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.757153796258163</v>
+        <v>-3.738972060884304</v>
       </c>
       <c r="G27" t="n">
-        <v>1.428939506221545</v>
+        <v>1.395950726578273</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.738458968758522</v>
       </c>
       <c r="E28" t="n">
-        <v>3.506799580067203</v>
+        <v>3.409001239233359</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.934228406814366</v>
+        <v>-3.927603753383867</v>
       </c>
       <c r="G28" t="n">
-        <v>1.478121679832478</v>
+        <v>1.450831389072063</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.756728945890805</v>
       </c>
       <c r="E29" t="n">
-        <v>3.519177310281128</v>
+        <v>3.422421933804523</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.026604247871582</v>
+        <v>-4.026594794101093</v>
       </c>
       <c r="G29" t="n">
-        <v>1.566103347374062</v>
+        <v>1.533453073706385</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.756877833842645</v>
       </c>
       <c r="E30" t="n">
-        <v>3.479586139312059</v>
+        <v>3.396788187602156</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.064824317159323</v>
+        <v>-4.065236318576465</v>
       </c>
       <c r="G30" t="n">
-        <v>1.620327735219672</v>
+        <v>1.587533520272282</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.740249388665968</v>
       </c>
       <c r="E31" t="n">
-        <v>3.482777244292804</v>
+        <v>3.398282493260189</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.124000955939787</v>
+        <v>-4.125096983395903</v>
       </c>
       <c r="G31" t="n">
-        <v>1.593260675426946</v>
+        <v>1.562345626084618</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.70964086655982</v>
       </c>
       <c r="E32" t="n">
-        <v>3.414105055456387</v>
+        <v>3.327806159061951</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.101609243094674</v>
+        <v>-4.108451638206772</v>
       </c>
       <c r="G32" t="n">
-        <v>1.574964274965858</v>
+        <v>1.545339207854852</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.668903048829331</v>
       </c>
       <c r="E33" t="n">
-        <v>3.294354449625027</v>
+        <v>3.216063811716293</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.060040709291587</v>
+        <v>-4.060094077350803</v>
       </c>
       <c r="G33" t="n">
-        <v>1.496882229928572</v>
+        <v>1.472929425111322</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.620365596316022</v>
       </c>
       <c r="E34" t="n">
-        <v>3.257471326460718</v>
+        <v>3.177321650329256</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.902527474680048</v>
+        <v>-3.913828389939174</v>
       </c>
       <c r="G34" t="n">
-        <v>1.422646954599535</v>
+        <v>1.399867027243672</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.567858289240263</v>
       </c>
       <c r="E35" t="n">
-        <v>3.161369784949587</v>
+        <v>3.087330294157787</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.792748157032503</v>
+        <v>-3.812465977630753</v>
       </c>
       <c r="G35" t="n">
-        <v>1.402081649220944</v>
+        <v>1.37681690502801</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.512274660409493</v>
       </c>
       <c r="E36" t="n">
-        <v>3.052646544953832</v>
+        <v>2.971803998933584</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.67648294290842</v>
+        <v>-3.698934123019516</v>
       </c>
       <c r="G36" t="n">
-        <v>1.336454184402853</v>
+        <v>1.310283708004948</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.453546698400975</v>
       </c>
       <c r="E37" t="n">
-        <v>2.953274608773978</v>
+        <v>2.871631846825836</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.567105258026514</v>
+        <v>-3.583951572078633</v>
       </c>
       <c r="G37" t="n">
-        <v>1.250135160626084</v>
+        <v>1.221387159448241</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.392534808566738</v>
       </c>
       <c r="E38" t="n">
-        <v>2.868649334716538</v>
+        <v>2.798520655304046</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.426578314262408</v>
+        <v>-3.437895392419468</v>
       </c>
       <c r="G38" t="n">
-        <v>1.1837599330583</v>
+        <v>1.155194908083482</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.328165967295733</v>
       </c>
       <c r="E39" t="n">
-        <v>2.699452459621213</v>
+        <v>2.639093489608872</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.237462954666183</v>
+        <v>-3.240383864787129</v>
       </c>
       <c r="G39" t="n">
-        <v>1.106328063462428</v>
+        <v>1.080710785118332</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.262049172661985</v>
       </c>
       <c r="E40" t="n">
-        <v>2.585526596252797</v>
+        <v>2.54683688804396</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.103782370498573</v>
+        <v>-3.107910618599143</v>
       </c>
       <c r="G40" t="n">
-        <v>1.042254066608014</v>
+        <v>1.010620530708476</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.195245668720707</v>
       </c>
       <c r="E41" t="n">
-        <v>2.437540322612062</v>
+        <v>2.391269300391247</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.94803668600825</v>
+        <v>-2.951948107308235</v>
       </c>
       <c r="G41" t="n">
-        <v>0.937634982846096</v>
+        <v>0.9104794845552423</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.127671168249585</v>
       </c>
       <c r="E42" t="n">
-        <v>2.196714363239445</v>
+        <v>2.149253995698972</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.895335270092481</v>
+        <v>-2.899946880329372</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8806543634622622</v>
+        <v>0.8478015961299048</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.059922326227517</v>
       </c>
       <c r="E43" t="n">
-        <v>1.983287260507704</v>
+        <v>1.947895393398044</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.795587622775749</v>
+        <v>-2.800499313985602</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8063587059862278</v>
+        <v>0.7725520227154364</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9907560213879465</v>
       </c>
       <c r="E44" t="n">
-        <v>1.722306472371947</v>
+        <v>1.694716100638572</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.684896778676805</v>
+        <v>-2.681536115747923</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7908770894483319</v>
+        <v>0.762734129581823</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9205536520868582</v>
       </c>
       <c r="E45" t="n">
-        <v>1.508532324775137</v>
+        <v>1.482527746801306</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.654095174580351</v>
+        <v>-2.653263242777267</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7113190363733152</v>
+        <v>0.6901322218251179</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8500585060092496</v>
       </c>
       <c r="E46" t="n">
-        <v>1.274610667463307</v>
+        <v>1.248023005322506</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.561626930540609</v>
+        <v>-2.560604093565702</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6116110339005729</v>
+        <v>0.592435127823614</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7795587069298009</v>
       </c>
       <c r="E47" t="n">
-        <v>1.100111142004335</v>
+        <v>1.068134830684464</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.510558272276494</v>
+        <v>-2.511180391366777</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5366694704278623</v>
+        <v>0.5211232022982311</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7111659402397904</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9148703035071516</v>
+        <v>0.8798651261065502</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.436072319549314</v>
+        <v>-2.441449380235525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4455406121942582</v>
+        <v>0.4330012530009948</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6457428068888225</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7426781079683166</v>
+        <v>0.7121588971451972</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.335817828150205</v>
+        <v>-2.341183300343558</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3641698748679463</v>
+        <v>0.3520885661029208</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5846225793870962</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5795133483660296</v>
+        <v>0.5542083494084294</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.278776826619374</v>
+        <v>-2.2859214374268</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3235552570032931</v>
+        <v>0.3091288032361713</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5282915552080337</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3826651094696544</v>
+        <v>0.3608147012251552</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.220718477399726</v>
+        <v>-2.224590863776399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.226701073377055</v>
+        <v>0.2213130341186627</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4756571667191491</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2618520218193991</v>
+        <v>0.2374875205453444</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.16544319622808</v>
+        <v>-2.170803789056018</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1864402095049157</v>
+        <v>0.18007751700508</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4267434008893742</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07381835654338681</v>
+        <v>0.04709407217099389</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.100265242948752</v>
+        <v>-2.095055910448647</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1420843382090899</v>
+        <v>0.1395702451795345</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3808117628978056</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1395056695939837</v>
+        <v>-0.1629071061194532</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.973473102904335</v>
+        <v>-1.973891508488585</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07967847440558214</v>
+        <v>0.07905940491868287</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3376759601939613</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2581773257481766</v>
+        <v>-0.2716590123870157</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.931531907567755</v>
+        <v>-1.933695906128857</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0495587616257328</v>
+        <v>0.04756432101276665</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2977769417883961</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3918603495984927</v>
+        <v>-0.4167408437650762</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.911200201808359</v>
+        <v>-1.910690918043274</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06585103874921147</v>
+        <v>-0.06477879819948838</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.260547606319087</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5093060651924219</v>
+        <v>-0.528782052242341</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.816445975072164</v>
+        <v>-1.820035358254827</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08704578226620649</v>
+        <v>-0.08744893983353695</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2260433513870993</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6919644995442537</v>
+        <v>-0.7225227452906848</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.775868562368793</v>
+        <v>-1.780453336095908</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1357144026673178</v>
+        <v>-0.1358345570406371</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1938500877401535</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8120603204786532</v>
+        <v>-0.8394085537033594</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.753445438608827</v>
+        <v>-1.756228506656828</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2050178594041694</v>
+        <v>-0.2112658868167765</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1631882041461647</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9352740559125888</v>
+        <v>-0.9558771763731383</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.699155789250806</v>
+        <v>-1.695576774719648</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2336871808147118</v>
+        <v>-0.2369386679424557</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1332729919503879</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.119623800301043</v>
+        <v>-1.143912061490504</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.625807338585761</v>
+        <v>-1.624621652790163</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2797386315918972</v>
+        <v>-0.2806266760972423</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1022029643796255</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.235535565392951</v>
+        <v>-1.264776382477606</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.549234237302749</v>
+        <v>-1.542522670175814</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.327284997947792</v>
+        <v>-0.3289860667152424</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.06909619147064644</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.327928789189454</v>
+        <v>-1.351644334863448</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.575077186297241</v>
+        <v>-1.560254284090233</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3943036918295454</v>
+        <v>-0.3966768931827721</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03382068707544143</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.479358674971108</v>
+        <v>-1.505046094193029</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.503329167487983</v>
+        <v>-1.495982672936553</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4321413408529647</v>
+        <v>-0.4350110176370643</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.003281708425458709</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.674875457030142</v>
+        <v>-1.71112670237334</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.456054215833241</v>
+        <v>-1.453392521999913</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4624867242832108</v>
+        <v>-0.4697697870842594</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04062214234637854</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.796928513416226</v>
+        <v>-1.829370804133132</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.436749006572812</v>
+        <v>-1.421929153969188</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5191099301504702</v>
+        <v>-0.5215532723815229</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.07661484640054822</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.973790871576921</v>
+        <v>-1.996975786262145</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.412300946166043</v>
+        <v>-1.393772165927113</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5470461269075615</v>
+        <v>-0.5524628324377611</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.109756030888484</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.143528136391845</v>
+        <v>-2.164156873520818</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.378718713704295</v>
+        <v>-1.348085447714623</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6019127612257866</v>
+        <v>-0.6043286570263856</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.139092930575245</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.220551969054974</v>
+        <v>-2.243861917478931</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.378890101414461</v>
+        <v>-1.347930527862729</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6395747530943025</v>
+        <v>-0.6514419797017894</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1637053867190113</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.321168143415394</v>
+        <v>-2.349251331055581</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.306770030992387</v>
+        <v>-1.284949508861048</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6517798757567078</v>
+        <v>-0.6566360641849759</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1826811431120033</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.425424324374646</v>
+        <v>-2.444122052641035</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.257836705017567</v>
+        <v>-1.226278799281945</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7110727044260935</v>
+        <v>-0.7174073405747988</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1962356645644476</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.432504283590338</v>
+        <v>-2.444735632841843</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.257229833944203</v>
+        <v>-1.226225736183068</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7616741634518194</v>
+        <v>-0.7677111583102717</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2053594444330148</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.436781047375695</v>
+        <v>-2.443133371224026</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.194583661394056</v>
+        <v>-1.157027795723294</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.765727696269487</v>
+        <v>-0.7629019337741132</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2111449908979571</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.453743551316736</v>
+        <v>-2.450672600709309</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.229304615759293</v>
+        <v>-1.191448059194894</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7983883385886688</v>
+        <v>-0.7953924082244823</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2137657184914002</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.364775032120173</v>
+        <v>-2.342393992886903</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.150063111515508</v>
+        <v>-1.108390891197374</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7728454705671368</v>
+        <v>-0.774658154818432</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2127325029386164</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.259075778839735</v>
+        <v>-2.231457350755229</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.154829031683618</v>
+        <v>-1.120171509068763</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7734078174310985</v>
+        <v>-0.7716847915192853</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2073874286383416</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.119824789131386</v>
+        <v>-2.081591911509433</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.044738349530593</v>
+        <v>-1.013300598168291</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7491774987059284</v>
+        <v>-0.7409057544878713</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1972373950581869</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.944038940965151</v>
+        <v>-1.896851817887861</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.020877032814856</v>
+        <v>-0.9946132385534074</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7206271118273518</v>
+        <v>-0.7138960272387602</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1823067273765338</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.732096995081291</v>
+        <v>-1.681269865405169</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9634029876035326</v>
+        <v>-0.9325977239830184</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6841117708311224</v>
+        <v>-0.6717096437901273</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.162937076089163</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.530353532833336</v>
+        <v>-1.488470889881724</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8440036960819792</v>
+        <v>-0.818810312608224</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.632627756586142</v>
+        <v>-0.6236625325586224</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1395957434228376</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.258439916566871</v>
+        <v>-1.210209829132341</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7411497227585705</v>
+        <v>-0.7196670966821503</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5742260220254852</v>
+        <v>-0.5595153452229988</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1128779231417241</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9740894077808353</v>
+        <v>-0.9107021816084399</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7187802720181588</v>
+        <v>-0.6942352342237866</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5090151330296131</v>
+        <v>-0.4991691835448692</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.08378178856471341</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7505876353105699</v>
+        <v>-0.6969420621871945</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5769426087197211</v>
+        <v>-0.5553349489045677</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4563497024337718</v>
+        <v>-0.438410715489258</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.05407032474396513</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4833362526971664</v>
+        <v>-0.4285379294947371</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4773547606202982</v>
+        <v>-0.4560179055856209</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4088350519530679</v>
+        <v>-0.3903081014761688</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02563589567442924</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2342647756955922</v>
+        <v>-0.1791340457243353</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3461272774145698</v>
+        <v>-0.3306432211939668</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3783743935149164</v>
+        <v>-0.3636259016304716</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0005539138485616727</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.007430396647575492</v>
+        <v>0.05712360777943896</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2951897520959557</v>
+        <v>-0.2718554068449285</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3299363231296158</v>
+        <v>-0.3119070679249433</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01908464831099521</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2056228247093189</v>
+        <v>0.263285335409757</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.189750325023812</v>
+        <v>-0.1748432537634127</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2661672866135761</v>
+        <v>-0.2559035414652598</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03228193679818622</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4160149621535615</v>
+        <v>0.4658662187468872</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1346256942593225</v>
+        <v>-0.1293346323885331</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1842537198849585</v>
+        <v>-0.1774189487813197</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03821744353807878</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6074965090152306</v>
+        <v>0.6602814840637145</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.006228852914381818</v>
+        <v>-0.005071223469914004</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1626369112596538</v>
+        <v>-0.1591359665751199</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03627047322805584</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8114917984017395</v>
+        <v>0.8583892091575744</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04820900716808935</v>
+        <v>0.05005340729457548</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09479848398835106</v>
+        <v>-0.09891727831843068</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02660448548231728</v>
       </c>
       <c r="E91" t="n">
-        <v>1.015900614007084</v>
+        <v>1.051678560905125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1394897356502037</v>
+        <v>0.141752541360939</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08171995491684245</v>
+        <v>-0.08257140418158274</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.009789357887052702</v>
       </c>
       <c r="E92" t="n">
-        <v>1.112371767448324</v>
+        <v>1.142525025865395</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2665136455517845</v>
+        <v>0.2736119023877784</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0742783127398394</v>
+        <v>-0.07871487574250477</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01206865589539376</v>
       </c>
       <c r="E93" t="n">
-        <v>1.246240817105048</v>
+        <v>1.281303936969941</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3682447549093001</v>
+        <v>0.367852575914151</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06946115923488323</v>
+        <v>-0.07556768505048478</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03685234204107201</v>
       </c>
       <c r="E94" t="n">
-        <v>1.337808208305234</v>
+        <v>1.364836843095324</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4423464576101286</v>
+        <v>0.4439255422422294</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1044571878253333</v>
+        <v>-0.1161377787057354</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06286959061271907</v>
       </c>
       <c r="E95" t="n">
-        <v>1.344265438509966</v>
+        <v>1.359639709008754</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5196691514048637</v>
+        <v>0.5183657509186531</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1179443637502631</v>
+        <v>-0.1322024794106025</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08842594191414843</v>
       </c>
       <c r="E96" t="n">
-        <v>1.32254189376623</v>
+        <v>1.34391961348625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.599676106097967</v>
+        <v>0.5962215153848659</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09140122581886437</v>
+        <v>-0.1081179317271751</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1120427494440947</v>
       </c>
       <c r="E97" t="n">
-        <v>1.295137547839263</v>
+        <v>1.312134207338201</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6108181370208005</v>
+        <v>0.6114762414310115</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09056441465036603</v>
+        <v>-0.1022834305334032</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1353338033450757</v>
       </c>
       <c r="E98" t="n">
-        <v>1.23871012650924</v>
+        <v>1.250572473751313</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6262887749865149</v>
+        <v>0.624310802231821</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1347464585533186</v>
+        <v>-0.1497175714847764</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1591454923248476</v>
       </c>
       <c r="E99" t="n">
-        <v>1.13807504460784</v>
+        <v>1.146867661083841</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5884364878668537</v>
+        <v>0.5904492261001223</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.16335783749957</v>
+        <v>-0.1779477500080603</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1876718137830863</v>
       </c>
       <c r="E100" t="n">
-        <v>1.114965150165857</v>
+        <v>1.123038670163971</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5657651263914516</v>
+        <v>0.562900328972766</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1722760976349801</v>
+        <v>-0.1894453646854379</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2186832381756521</v>
       </c>
       <c r="E101" t="n">
-        <v>1.066622227406129</v>
+        <v>1.082893081299737</v>
       </c>
       <c r="F101" t="n">
-        <v>0.536040642210135</v>
+        <v>0.5402320171007476</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2055771566647473</v>
+        <v>-0.2191948556145012</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2562307677223148</v>
       </c>
       <c r="E102" t="n">
-        <v>1.026446142508058</v>
+        <v>1.040015657724348</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5360851664195376</v>
+        <v>0.538793214224299</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2037266573314937</v>
+        <v>-0.2159647157104435</v>
       </c>
     </row>
   </sheetData>
